--- a/backend_test/etiquetado.xlsx
+++ b/backend_test/etiquetado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9def1edecff34b88/UNIR_Edgar/proyecto_placas/backend_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="11_0705D3ACD3C0D2372F582211595ED87656CD1EEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CA72297-790F-4F2E-B371-18964A844F84}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="11_0705D3ACD3C0D2372F582211595ED87656CD1EEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7AAB89-AE60-41E2-A0B0-82E25707710E}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="257">
   <si>
     <t>auto_01.png</t>
   </si>
@@ -710,6 +710,87 @@
   </si>
   <si>
     <t>FUIE 419</t>
+  </si>
+  <si>
+    <t>BL1155</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>MH 20 EE 7601</t>
+  </si>
+  <si>
+    <t>MH 20EE 7601</t>
+  </si>
+  <si>
+    <t>MH 03 BS 7778</t>
+  </si>
+  <si>
+    <t>MH03BS 7778</t>
+  </si>
+  <si>
+    <t>KL 02</t>
+  </si>
+  <si>
+    <t>TN 74 AL 5074</t>
+  </si>
+  <si>
+    <t>TNZLAL 5074</t>
+  </si>
+  <si>
+    <t>8117 MP-7</t>
+  </si>
+  <si>
+    <t>8117MP-]</t>
+  </si>
+  <si>
+    <t>KA 29 Z 999</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>KL 53E 964</t>
+  </si>
+  <si>
+    <t>KL: 53E 964</t>
+  </si>
+  <si>
+    <t>TN 45 BA 1065</t>
+  </si>
+  <si>
+    <t>IH45 BA 1065</t>
+  </si>
+  <si>
+    <t>ME 9869</t>
+  </si>
+  <si>
+    <t>9869_</t>
+  </si>
+  <si>
+    <t>KL07CB8599</t>
+  </si>
+  <si>
+    <t>[ALDZIBESGG</t>
+  </si>
+  <si>
+    <t>HR.26 BR.9044</t>
+  </si>
+  <si>
+    <t>HR.26.BR.9044</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>MH 14 EH 7958</t>
+  </si>
+  <si>
+    <t>FHH 14EH7958</t>
+  </si>
+  <si>
+    <t>COBRE</t>
   </si>
 </sst>
 </file>
@@ -776,14 +857,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,6 +881,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1088,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,88 +2430,376 @@
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47">
+        <v>3.3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" t="s">
+        <v>233</v>
+      </c>
+      <c r="I48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49">
+        <v>3.2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" t="s">
+        <v>235</v>
+      </c>
+      <c r="I49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50">
+        <v>3.2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" t="s">
+        <v>236</v>
+      </c>
+      <c r="I50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51">
+        <v>3.5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53">
+        <v>3.8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" t="s">
+        <v>242</v>
+      </c>
+      <c r="I53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" t="s">
+        <v>244</v>
+      </c>
+      <c r="I54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55">
+        <v>3.1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" t="s">
+        <v>246</v>
+      </c>
+      <c r="I55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56">
+        <v>2.8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" t="s">
+        <v>250</v>
+      </c>
+      <c r="I57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58">
+        <v>2.9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>174</v>
+      </c>
+      <c r="H58" t="s">
+        <v>251</v>
+      </c>
+      <c r="I58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59">
+        <v>2.7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" t="s">
+        <v>255</v>
+      </c>
+      <c r="I59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>

--- a/backend_test/etiquetado.xlsx
+++ b/backend_test/etiquetado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9def1edecff34b88/UNIR_Edgar/proyecto_placas/backend_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omarf\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="11_0705D3ACD3C0D2372F582211595ED87656CD1EEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7AAB89-AE60-41E2-A0B0-82E25707710E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2C4781-2CE0-429B-98A2-784DD92787D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="380">
   <si>
     <t>auto_01.png</t>
   </si>
@@ -712,7 +712,7 @@
     <t>FUIE 419</t>
   </si>
   <si>
-    <t>BL1155</t>
+    <t>BLII55</t>
   </si>
   <si>
     <t>PY</t>
@@ -724,13 +724,16 @@
     <t>MH 20EE 7601</t>
   </si>
   <si>
-    <t>MH 03 BS 7778</t>
-  </si>
-  <si>
-    <t>MH03BS 7778</t>
-  </si>
-  <si>
-    <t>KL 02</t>
+    <t>MHO3BS 7778</t>
+  </si>
+  <si>
+    <t>KL 02' AF6363</t>
+  </si>
+  <si>
+    <t>KI 02"</t>
+  </si>
+  <si>
+    <t>AUTOMOVIL</t>
   </si>
   <si>
     <t>TN 74 AL 5074</t>
@@ -739,7 +742,7 @@
     <t>TNZLAL 5074</t>
   </si>
   <si>
-    <t>8117 MP-7</t>
+    <t>8117MP-7</t>
   </si>
   <si>
     <t>8117MP-]</t>
@@ -754,7 +757,7 @@
     <t>KL 53E 964</t>
   </si>
   <si>
-    <t>KL: 53E 964</t>
+    <t>KL:53E946</t>
   </si>
   <si>
     <t>TN 45 BA 1065</t>
@@ -763,7 +766,7 @@
     <t>IH45 BA 1065</t>
   </si>
   <si>
-    <t>ME 9869</t>
+    <t>KA 04 ME 9869</t>
   </si>
   <si>
     <t>9869_</t>
@@ -772,25 +775,391 @@
     <t>KL07CB8599</t>
   </si>
   <si>
-    <t>[ALDZIBESGG</t>
-  </si>
-  <si>
-    <t>HR.26 BR.9044</t>
+    <t>{ALDZIBESGG</t>
   </si>
   <si>
     <t>HR.26.BR.9044</t>
   </si>
   <si>
+    <t>CAMION</t>
+  </si>
+  <si>
     <t>PERLA</t>
   </si>
   <si>
     <t>MH 14 EH 7958</t>
   </si>
   <si>
-    <t>FHH 14EH7958</t>
-  </si>
-  <si>
     <t>COBRE</t>
+  </si>
+  <si>
+    <t>FHH 14 EH 7958</t>
+  </si>
+  <si>
+    <t>UP 16 TC 2805</t>
+  </si>
+  <si>
+    <t>UP16 TC 2805</t>
+  </si>
+  <si>
+    <t>HR 26 CT 3302</t>
+  </si>
+  <si>
+    <t>HR 26 CR 3302</t>
+  </si>
+  <si>
+    <t>MH 20 EE 0943</t>
+  </si>
+  <si>
+    <t>KL 25 B 2001</t>
+  </si>
+  <si>
+    <t>KA 19FR 0212010 *211</t>
+  </si>
+  <si>
+    <t>GRIS OSCURO</t>
+  </si>
+  <si>
+    <t>KA 19/TR 02/2010-2011</t>
+  </si>
+  <si>
+    <t>R.J-27-T A.l.l 43</t>
+  </si>
+  <si>
+    <t>R2TTAITX</t>
+  </si>
+  <si>
+    <t>PB03AG[T]8979</t>
+  </si>
+  <si>
+    <t>[UNUATOEES UNBIDA</t>
+  </si>
+  <si>
+    <t>KA 21 M 5519</t>
+  </si>
+  <si>
+    <t>1HS</t>
+  </si>
+  <si>
+    <t>MH01AV8866</t>
+  </si>
+  <si>
+    <t>AUTOMOVL</t>
+  </si>
+  <si>
+    <t>KL 10 AV 6342</t>
+  </si>
+  <si>
+    <t>KL 1GAV 6342</t>
+  </si>
+  <si>
+    <t>TN5 9 A Q 1515</t>
+  </si>
+  <si>
+    <t>[N5.9A01515</t>
+  </si>
+  <si>
+    <t>MH 20 EE 7597</t>
+  </si>
+  <si>
+    <t>MH ZOEE 7597</t>
+  </si>
+  <si>
+    <t>Peltre</t>
+  </si>
+  <si>
+    <t>MH 20 EE 7598</t>
+  </si>
+  <si>
+    <t>TN 09 CH 7770</t>
+  </si>
+  <si>
+    <t>TN09CH7770</t>
+  </si>
+  <si>
+    <t>KVSZCKC</t>
+  </si>
+  <si>
+    <t>KV57 CKC</t>
+  </si>
+  <si>
+    <t>MH 20 DV 2362</t>
+  </si>
+  <si>
+    <t>MH20 DV 2362</t>
+  </si>
+  <si>
+    <t>MH 06 AW 8929</t>
+  </si>
+  <si>
+    <t>MH06 AW8929</t>
+  </si>
+  <si>
+    <t>GRFITO</t>
+  </si>
+  <si>
+    <t>TN 09TC 0131</t>
+  </si>
+  <si>
+    <t>G-241-GH</t>
+  </si>
+  <si>
+    <t>624G</t>
+  </si>
+  <si>
+    <t>VBJ-87-T</t>
+  </si>
+  <si>
+    <t>VBJ 87-T</t>
+  </si>
+  <si>
+    <t>V-494-RT</t>
+  </si>
+  <si>
+    <t>[IN59401515</t>
+  </si>
+  <si>
+    <t>KAA 03 AB 3380</t>
+  </si>
+  <si>
+    <t>KA 03 AB</t>
+  </si>
+  <si>
+    <t>KA51MJ8156</t>
+  </si>
+  <si>
+    <t>K451MJ8156</t>
+  </si>
+  <si>
+    <t>HR26 BP 3543</t>
+  </si>
+  <si>
+    <t>HR26 BP3543</t>
+  </si>
+  <si>
+    <t>MOTO</t>
+  </si>
+  <si>
+    <t>MH 02 AJ 344</t>
+  </si>
+  <si>
+    <t>MOTOCICLETA</t>
+  </si>
+  <si>
+    <t>MH 02 AJ</t>
+  </si>
+  <si>
+    <t>HR 99 HA (TEMP.) 4575</t>
+  </si>
+  <si>
+    <t>HR 99 HA (TEMP) 4575</t>
+  </si>
+  <si>
+    <t>HR26DK6475</t>
+  </si>
+  <si>
+    <t>HR26DK 475]</t>
+  </si>
+  <si>
+    <t>HR 26 CH 3604</t>
+  </si>
+  <si>
+    <t>HR 69 6969</t>
+  </si>
+  <si>
+    <t>HR26DG6167</t>
+  </si>
+  <si>
+    <t>FHR260G6 162]</t>
+  </si>
+  <si>
+    <t>MH 01 AT 2574</t>
+  </si>
+  <si>
+    <t>AA 5274</t>
+  </si>
+  <si>
+    <t>DL 3 CAY 9324</t>
+  </si>
+  <si>
+    <t>BLANACO</t>
+  </si>
+  <si>
+    <t>KL 55R 2473</t>
+  </si>
+  <si>
+    <t>MH 20CS 1941</t>
+  </si>
+  <si>
+    <t>MH20CS 1941</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BLANCA</t>
+  </si>
+  <si>
+    <t>KL 16 J 3636</t>
+  </si>
+  <si>
+    <t>MH12JC2813</t>
+  </si>
+  <si>
+    <t>JH 10 BL 2779</t>
+  </si>
+  <si>
+    <t>JH I0 BL 2779</t>
+  </si>
+  <si>
+    <t>TN 37 CR 4019</t>
+  </si>
+  <si>
+    <t>MH : 20 EE 0 45</t>
+  </si>
+  <si>
+    <t>MH. 20 EE 0 .45</t>
+  </si>
+  <si>
+    <t>GJ 17 TC 214</t>
+  </si>
+  <si>
+    <t>KA03 1351</t>
+  </si>
+  <si>
+    <t>AZUL CLARO</t>
+  </si>
+  <si>
+    <t>HR 26</t>
+  </si>
+  <si>
+    <t>HR 26 RN 0283</t>
+  </si>
+  <si>
+    <t>MH20CS 4946</t>
+  </si>
+  <si>
+    <t>TN 07BU54 27</t>
+  </si>
+  <si>
+    <t>TN 07 BU5427</t>
+  </si>
+  <si>
+    <t>MH 13 BN 4348</t>
+  </si>
+  <si>
+    <t>MH13</t>
+  </si>
+  <si>
+    <t>KL 01 AU585</t>
+  </si>
+  <si>
+    <t>KLOL</t>
+  </si>
+  <si>
+    <t>WB07D51 06</t>
+  </si>
+  <si>
+    <t>KL 49 H 2570</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>BICICLETA</t>
+  </si>
+  <si>
+    <t>Coches_chinos01</t>
+  </si>
+  <si>
+    <t>Coches_chinos02</t>
+  </si>
+  <si>
+    <t>Coches_chinos03</t>
+  </si>
+  <si>
+    <t>Coches_chinos04</t>
+  </si>
+  <si>
+    <t>Coches_chinos05</t>
+  </si>
+  <si>
+    <t>Coches_chinos06</t>
+  </si>
+  <si>
+    <t>Coches_chinos07</t>
+  </si>
+  <si>
+    <t>Coches_chinos08</t>
+  </si>
+  <si>
+    <t>Coches_chinos09</t>
+  </si>
+  <si>
+    <t>Coches_chinos10</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>MA P02264</t>
+  </si>
+  <si>
+    <t>MA F07002</t>
+  </si>
+  <si>
+    <t>BA D03737</t>
+  </si>
+  <si>
+    <t>IEA 017778</t>
+  </si>
+  <si>
+    <t>A D03737</t>
+  </si>
+  <si>
+    <t>A D02264</t>
+  </si>
+  <si>
+    <t>A F07002</t>
+  </si>
+  <si>
+    <t>A D17778</t>
+  </si>
+  <si>
+    <t>A D16688</t>
+  </si>
+  <si>
+    <t>A D15599</t>
+  </si>
+  <si>
+    <t>LA D15599</t>
+  </si>
+  <si>
+    <t>GRÁFITO</t>
+  </si>
+  <si>
+    <t>A D11105</t>
+  </si>
+  <si>
+    <t>A D114057</t>
+  </si>
+  <si>
+    <t>A D32567</t>
+  </si>
+  <si>
+    <t>MA D32567</t>
+  </si>
+  <si>
+    <t>A D15666</t>
+  </si>
+  <si>
+    <t>IA D15666</t>
+  </si>
+  <si>
+    <t>A D08885</t>
+  </si>
+  <si>
+    <t>RA P08885</t>
   </si>
 </sst>
 </file>
@@ -881,10 +1250,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,13 +1537,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2443,7 +2808,7 @@
         <v>145</v>
       </c>
       <c r="F47">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G47" t="s">
         <v>133</v>
@@ -2469,7 +2834,7 @@
         <v>147</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="G48" t="s">
         <v>133</v>
@@ -2489,19 +2854,22 @@
         <v>133</v>
       </c>
       <c r="C49" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49">
+        <v>2.5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" t="s">
         <v>234</v>
-      </c>
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49">
-        <v>3.2</v>
-      </c>
-      <c r="G49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H49" t="s">
-        <v>235</v>
       </c>
       <c r="I49" t="s">
         <v>131</v>
@@ -2515,16 +2883,16 @@
         <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F50">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="G50" t="s">
         <v>133</v>
@@ -2541,22 +2909,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>157</v>
+      </c>
+      <c r="E51" t="s">
+        <v>145</v>
       </c>
       <c r="F51">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="G51" t="s">
         <v>133</v>
       </c>
       <c r="H51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I51" t="s">
         <v>130</v>
@@ -2567,25 +2938,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D52" t="s">
         <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="G52" t="s">
         <v>133</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I52" t="s">
         <v>181</v>
@@ -2596,25 +2967,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D53" t="s">
         <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="G53" t="s">
         <v>133</v>
       </c>
       <c r="H53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I53" t="s">
         <v>165</v>
@@ -2628,11 +2999,14 @@
         <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s">
         <v>168</v>
       </c>
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
       <c r="F54">
         <v>3</v>
       </c>
@@ -2640,7 +3014,7 @@
         <v>133</v>
       </c>
       <c r="H54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I54" t="s">
         <v>147</v>
@@ -2654,19 +3028,22 @@
         <v>174</v>
       </c>
       <c r="C55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D55" t="s">
         <v>132</v>
       </c>
+      <c r="E55" t="s">
+        <v>146</v>
+      </c>
       <c r="F55">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="G55" t="s">
         <v>133</v>
       </c>
       <c r="H55" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I55" t="s">
         <v>130</v>
@@ -2677,25 +3054,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F56">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="G56" t="s">
         <v>133</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I56" t="s">
         <v>147</v>
@@ -2706,22 +3083,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>213</v>
+      </c>
+      <c r="E57" t="s">
+        <v>146</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G57" t="s">
         <v>133</v>
       </c>
       <c r="H57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I57" t="s">
         <v>213</v>
@@ -2732,7 +3112,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="C58" t="s">
         <v>252</v>
@@ -2740,17 +3120,20 @@
       <c r="D58" t="s">
         <v>163</v>
       </c>
+      <c r="E58" t="s">
+        <v>145</v>
+      </c>
       <c r="F58">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G58" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="H58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2758,22 +3141,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>256</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
       </c>
       <c r="F59">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="G59" t="s">
         <v>133</v>
       </c>
       <c r="H59" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I59" t="s">
         <v>256</v>
@@ -2783,334 +3169,1779 @@
       <c r="A60" t="s">
         <v>58</v>
       </c>
+      <c r="B60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D60" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60">
+        <v>2.7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" t="s">
+        <v>259</v>
+      </c>
+      <c r="I60" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
+      <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61">
+        <v>1.8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" t="s">
+        <v>261</v>
+      </c>
+      <c r="I61" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
+      <c r="B62" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62">
+        <v>3.6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>253</v>
+      </c>
+      <c r="H62" t="s">
+        <v>262</v>
+      </c>
+      <c r="I62" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
+      <c r="B63" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G63" t="s">
+        <v>253</v>
+      </c>
+      <c r="I63" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" t="s">
+        <v>266</v>
+      </c>
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64">
+        <v>1.8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>253</v>
+      </c>
+      <c r="H64" t="s">
+        <v>264</v>
+      </c>
+      <c r="I64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H65" t="s">
+        <v>268</v>
+      </c>
+      <c r="I65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66">
+        <v>1.5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H66" t="s">
+        <v>270</v>
+      </c>
+      <c r="I66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G67" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" t="s">
+        <v>272</v>
+      </c>
+      <c r="I67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>133</v>
+      </c>
+      <c r="H68" t="s">
+        <v>273</v>
+      </c>
+      <c r="I68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" t="s">
+        <v>275</v>
+      </c>
+      <c r="D69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69">
+        <v>2.6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" t="s">
+        <v>276</v>
+      </c>
+      <c r="I69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>133</v>
+      </c>
+      <c r="H70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71">
+        <v>1.8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>133</v>
+      </c>
+      <c r="H71" t="s">
+        <v>280</v>
+      </c>
+      <c r="I71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72">
+        <v>2.4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" t="s">
+        <v>282</v>
+      </c>
+      <c r="I72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" t="s">
+        <v>213</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" t="s">
+        <v>284</v>
+      </c>
+      <c r="I73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74">
+        <v>2.4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H74" t="s">
+        <v>285</v>
+      </c>
+      <c r="I74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75">
+        <v>1.6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>133</v>
+      </c>
+      <c r="H75" t="s">
+        <v>288</v>
+      </c>
+      <c r="I75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76">
+        <v>2.4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>253</v>
+      </c>
+      <c r="H76" t="s">
+        <v>290</v>
+      </c>
+      <c r="I76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" t="s">
+        <v>292</v>
+      </c>
+      <c r="D77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77">
+        <v>2.4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>237</v>
+      </c>
+      <c r="H77" t="s">
+        <v>292</v>
+      </c>
+      <c r="I77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78">
+        <v>1.8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>237</v>
+      </c>
+      <c r="H78" t="s">
+        <v>294</v>
+      </c>
+      <c r="I78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" t="s">
+        <v>168</v>
+      </c>
+      <c r="E79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79">
+        <v>2.1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>253</v>
+      </c>
+      <c r="H79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" t="s">
+        <v>297</v>
+      </c>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+      <c r="F80">
+        <v>2.4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>253</v>
+      </c>
+      <c r="H80" t="s">
+        <v>297</v>
+      </c>
+      <c r="I80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" t="s">
+        <v>277</v>
+      </c>
+      <c r="D81" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G81" t="s">
+        <v>237</v>
+      </c>
+      <c r="H81" t="s">
+        <v>298</v>
+      </c>
+      <c r="I81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G82" t="s">
+        <v>237</v>
+      </c>
+      <c r="H82" t="s">
+        <v>300</v>
+      </c>
+      <c r="I82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" t="s">
+        <v>301</v>
+      </c>
+      <c r="D83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G83" t="s">
+        <v>237</v>
+      </c>
+      <c r="H83" t="s">
+        <v>302</v>
+      </c>
+      <c r="I83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" t="s">
+        <v>189</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>237</v>
+      </c>
+      <c r="H84" t="s">
+        <v>304</v>
+      </c>
+      <c r="I84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>305</v>
+      </c>
+      <c r="C85" t="s">
+        <v>306</v>
+      </c>
+      <c r="D85" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85">
+        <v>1.3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>307</v>
+      </c>
+      <c r="H85" t="s">
+        <v>308</v>
+      </c>
+      <c r="I85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" t="s">
+        <v>132</v>
+      </c>
+      <c r="F86">
+        <v>1.9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>237</v>
+      </c>
+      <c r="H86" t="s">
+        <v>310</v>
+      </c>
+      <c r="I86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87">
+        <v>3.4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>237</v>
+      </c>
+      <c r="H87" t="s">
+        <v>312</v>
+      </c>
+      <c r="I87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" t="s">
+        <v>313</v>
+      </c>
+      <c r="D88" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G88" t="s">
+        <v>237</v>
+      </c>
+      <c r="H88" t="s">
+        <v>313</v>
+      </c>
+      <c r="I88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" t="s">
+        <v>314</v>
+      </c>
+      <c r="D89" t="s">
+        <v>215</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>237</v>
+      </c>
+      <c r="H89" t="s">
+        <v>314</v>
+      </c>
+      <c r="I89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" t="s">
+        <v>315</v>
+      </c>
+      <c r="D90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90">
+        <v>2.6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>237</v>
+      </c>
+      <c r="H90" t="s">
+        <v>316</v>
+      </c>
+      <c r="I90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>237</v>
+      </c>
+      <c r="C91" t="s">
+        <v>317</v>
+      </c>
+      <c r="D91" t="s">
+        <v>213</v>
+      </c>
+      <c r="E91" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G91" t="s">
+        <v>237</v>
+      </c>
+      <c r="H91" t="s">
+        <v>318</v>
+      </c>
+      <c r="I91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" t="s">
+        <v>319</v>
+      </c>
+      <c r="D92" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>237</v>
+      </c>
+      <c r="H92" t="s">
+        <v>319</v>
+      </c>
+      <c r="I92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" t="s">
+        <v>147</v>
+      </c>
+      <c r="F93">
+        <v>2.1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>237</v>
+      </c>
+      <c r="H93" t="s">
+        <v>321</v>
+      </c>
+      <c r="I93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>237</v>
+      </c>
+      <c r="C94" t="s">
+        <v>322</v>
+      </c>
+      <c r="D94" t="s">
+        <v>213</v>
+      </c>
+      <c r="F94">
+        <v>3.6</v>
+      </c>
+      <c r="G94" t="s">
+        <v>237</v>
+      </c>
+      <c r="H94" t="s">
+        <v>323</v>
+      </c>
+      <c r="I94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" t="s">
+        <v>279</v>
+      </c>
+      <c r="D95" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" t="s">
+        <v>324</v>
+      </c>
+      <c r="F95">
+        <v>2.4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>237</v>
+      </c>
+      <c r="H95" t="s">
+        <v>279</v>
+      </c>
+      <c r="I95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" t="s">
+        <v>326</v>
+      </c>
+      <c r="D96" t="s">
+        <v>325</v>
+      </c>
+      <c r="F96">
+        <v>3.9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>237</v>
+      </c>
+      <c r="H96" t="s">
+        <v>326</v>
+      </c>
+      <c r="I96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>237</v>
+      </c>
+      <c r="C97" t="s">
+        <v>327</v>
+      </c>
+      <c r="D97" t="s">
+        <v>163</v>
+      </c>
+      <c r="F97">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G97" t="s">
+        <v>237</v>
+      </c>
+      <c r="H97" t="s">
+        <v>327</v>
+      </c>
+      <c r="I97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>237</v>
+      </c>
+      <c r="C98" t="s">
+        <v>328</v>
+      </c>
+      <c r="D98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F98">
+        <v>5.5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>237</v>
+      </c>
+      <c r="H98" t="s">
+        <v>329</v>
+      </c>
+      <c r="I98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" t="s">
+        <v>330</v>
+      </c>
+      <c r="D99" t="s">
+        <v>131</v>
+      </c>
+      <c r="F99">
+        <v>2.7</v>
+      </c>
+      <c r="G99" t="s">
+        <v>237</v>
+      </c>
+      <c r="H99" t="s">
+        <v>330</v>
+      </c>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" t="s">
+        <v>332</v>
+      </c>
+      <c r="D100" t="s">
+        <v>163</v>
+      </c>
+      <c r="E100" t="s">
+        <v>145</v>
+      </c>
+      <c r="F100">
+        <v>2.4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>237</v>
+      </c>
+      <c r="H100" t="s">
+        <v>331</v>
+      </c>
+      <c r="I100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" t="s">
+        <v>333</v>
+      </c>
+      <c r="D101" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101">
+        <v>3.6</v>
+      </c>
+      <c r="G101" t="s">
+        <v>237</v>
+      </c>
+      <c r="H101" t="s">
+        <v>333</v>
+      </c>
+      <c r="I101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" t="s">
+        <v>334</v>
+      </c>
+      <c r="D102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E102" t="s">
+        <v>145</v>
+      </c>
+      <c r="F102">
+        <v>2.8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>237</v>
+      </c>
+      <c r="H102">
+        <v>1351</v>
+      </c>
+      <c r="I102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" t="s">
+        <v>337</v>
+      </c>
+      <c r="D103" t="s">
+        <v>335</v>
+      </c>
+      <c r="E103" t="s">
+        <v>145</v>
+      </c>
+      <c r="F103">
+        <v>1.8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>237</v>
+      </c>
+      <c r="H103" t="s">
+        <v>336</v>
+      </c>
+      <c r="I103" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" t="s">
+        <v>338</v>
+      </c>
+      <c r="D104" t="s">
+        <v>320</v>
+      </c>
+      <c r="F104">
+        <v>3.7</v>
+      </c>
+      <c r="G104" t="s">
+        <v>237</v>
+      </c>
+      <c r="H104" t="s">
+        <v>338</v>
+      </c>
+      <c r="I104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>237</v>
+      </c>
+      <c r="C105" t="s">
+        <v>339</v>
+      </c>
+      <c r="D105" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>237</v>
+      </c>
+      <c r="H105" t="s">
+        <v>340</v>
+      </c>
+      <c r="I105" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" t="s">
+        <v>341</v>
+      </c>
+      <c r="D106" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" t="s">
+        <v>146</v>
+      </c>
+      <c r="F106">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G106" t="s">
+        <v>237</v>
+      </c>
+      <c r="H106" t="s">
+        <v>342</v>
+      </c>
+      <c r="I106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>349</v>
+      </c>
+      <c r="B107" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" t="s">
+        <v>365</v>
+      </c>
+      <c r="D107" t="s">
+        <v>359</v>
+      </c>
+      <c r="E107" t="s">
+        <v>145</v>
+      </c>
+      <c r="F107">
+        <v>1.9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>237</v>
+      </c>
+      <c r="H107" t="s">
+        <v>360</v>
+      </c>
+      <c r="I107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>350</v>
+      </c>
+      <c r="B108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" t="s">
+        <v>366</v>
+      </c>
+      <c r="D108" t="s">
+        <v>359</v>
+      </c>
+      <c r="F108">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G108" t="s">
+        <v>237</v>
+      </c>
+      <c r="H108" t="s">
+        <v>361</v>
+      </c>
+      <c r="I108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>351</v>
+      </c>
+      <c r="B109" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109" t="s">
+        <v>364</v>
+      </c>
+      <c r="D109" t="s">
+        <v>168</v>
+      </c>
+      <c r="E109" t="s">
+        <v>144</v>
+      </c>
+      <c r="F109">
+        <v>1.8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>237</v>
+      </c>
+      <c r="H109" t="s">
+        <v>362</v>
+      </c>
+      <c r="I109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>352</v>
+      </c>
+      <c r="B110" t="s">
+        <v>237</v>
+      </c>
+      <c r="C110" t="s">
+        <v>367</v>
+      </c>
+      <c r="D110" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>237</v>
+      </c>
+      <c r="H110" t="s">
+        <v>363</v>
+      </c>
+      <c r="I110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>353</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" t="s">
+        <v>368</v>
+      </c>
+      <c r="D111" t="s">
+        <v>168</v>
+      </c>
+      <c r="F111">
+        <v>1.9</v>
+      </c>
+      <c r="G111" t="s">
+        <v>237</v>
+      </c>
+      <c r="H111" t="s">
+        <v>368</v>
+      </c>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>354</v>
+      </c>
+      <c r="B112" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112" t="s">
+        <v>369</v>
+      </c>
+      <c r="D112" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" t="s">
+        <v>144</v>
+      </c>
+      <c r="F112">
+        <v>2.9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>237</v>
+      </c>
+      <c r="H112" t="s">
+        <v>370</v>
+      </c>
+      <c r="I112" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>355</v>
+      </c>
+      <c r="B113" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" t="s">
+        <v>372</v>
+      </c>
+      <c r="D113" t="s">
+        <v>168</v>
+      </c>
+      <c r="F113">
+        <v>1.7</v>
+      </c>
+      <c r="G113" t="s">
+        <v>237</v>
+      </c>
+      <c r="H113" t="s">
+        <v>373</v>
+      </c>
+      <c r="I113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>356</v>
+      </c>
+      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" t="s">
+        <v>374</v>
+      </c>
+      <c r="D114" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" t="s">
+        <v>144</v>
+      </c>
+      <c r="F114">
+        <v>1.9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>237</v>
+      </c>
+      <c r="H114" t="s">
+        <v>375</v>
+      </c>
+      <c r="I114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>357</v>
+      </c>
+      <c r="B115" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115" t="s">
+        <v>376</v>
+      </c>
+      <c r="D115" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" t="s">
+        <v>144</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>237</v>
+      </c>
+      <c r="H115" t="s">
+        <v>377</v>
+      </c>
+      <c r="I115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>358</v>
+      </c>
+      <c r="B116" t="s">
+        <v>237</v>
+      </c>
+      <c r="C116" t="s">
+        <v>378</v>
+      </c>
+      <c r="D116" t="s">
+        <v>168</v>
+      </c>
+      <c r="E116" t="s">
+        <v>145</v>
+      </c>
+      <c r="F116">
+        <v>2.1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>237</v>
+      </c>
+      <c r="H116" t="s">
+        <v>379</v>
+      </c>
+      <c r="I116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B117" t="s">
+        <v>305</v>
+      </c>
+      <c r="C117" t="s">
+        <v>343</v>
+      </c>
+      <c r="D117" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" t="s">
+        <v>145</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>307</v>
+      </c>
+      <c r="H117" t="s">
+        <v>344</v>
+      </c>
+      <c r="I117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B118" t="s">
+        <v>305</v>
+      </c>
+      <c r="C118" t="s">
+        <v>345</v>
+      </c>
+      <c r="D118" t="s">
+        <v>147</v>
+      </c>
+      <c r="E118" t="s">
+        <v>146</v>
+      </c>
+      <c r="F118">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B119" t="s">
+        <v>305</v>
+      </c>
+      <c r="C119" t="s">
+        <v>346</v>
+      </c>
+      <c r="D119" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" t="s">
+        <v>146</v>
+      </c>
+      <c r="F119">
+        <v>2.6</v>
+      </c>
+      <c r="G119" t="s">
+        <v>307</v>
+      </c>
+      <c r="H119" t="s">
+        <v>347</v>
+      </c>
+      <c r="I119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B120" t="s">
+        <v>348</v>
+      </c>
+      <c r="E120" t="s">
+        <v>146</v>
+      </c>
+      <c r="F120">
+        <v>1.8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>237</v>
+      </c>
+      <c r="I120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B121" t="s">
+        <v>348</v>
+      </c>
+      <c r="E121" t="s">
+        <v>146</v>
+      </c>
+      <c r="F121">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B122" t="s">
+        <v>348</v>
+      </c>
+      <c r="E122" t="s">
+        <v>146</v>
+      </c>
+      <c r="G122" t="s">
+        <v>237</v>
+      </c>
+      <c r="I122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B123" t="s">
+        <v>348</v>
+      </c>
+      <c r="E123" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>124</v>
       </c>
     </row>
